--- a/blueprint-jira-better-excel/Canada-Issues.xlsx
+++ b/blueprint-jira-better-excel/Canada-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F789F-DDC0-4A51-8EA7-F71EFC75EC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59444C68-D2B7-42EF-81C9-5B81AB359FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="688" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="199">
   <si>
     <t>Status</t>
   </si>
@@ -1279,19 +1279,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1301,6 +1289,24 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1333,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="44348.719207175927" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="44348.721334027781" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -4414,7 +4420,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A6:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="A5:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="50">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -4546,7 +4552,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -4586,10 +4592,9 @@
       <x v="1"/>
     </i>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="30" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="39" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Bug Count" fld="0" subtotal="count" baseField="0" baseItem="0"/>
@@ -4609,7 +4614,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47FAF9B3-F1B1-4B18-B603-59ADFB7917AB}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:F10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <location ref="A5:F9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="50">
     <pivotField showAll="0"/>
     <pivotField name="To" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -4746,7 +4751,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -4822,11 +4827,10 @@
       <x v="4"/>
     </i>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="1" hier="-1"/>
     <pageField fld="37" item="1" hier="-1"/>
     <pageField fld="30" item="3" hier="-1"/>
-    <pageField fld="39" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="5">
     <dataField name="Total Estimate" fld="13" baseField="10" baseItem="1"/>
@@ -4849,7 +4853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -5272,15 +5276,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5308,31 +5312,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="17">
-        <v>12.2</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5341,10 +5337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF66290E-43B2-4D8C-B12D-4C7A8A7BDD6A}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5381,37 +5377,45 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="17">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B5" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>163</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="20">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>194</v>
+      <c r="A7" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="B7" s="20">
         <v>5</v>
@@ -5426,8 +5430,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>192</v>
+      <c r="A8" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="20">
         <v>5</v>
@@ -5442,8 +5446,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>84</v>
+      <c r="A9" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="B9" s="20">
         <v>5</v>
@@ -5457,25 +5461,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="20">
-        <v>5</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="29">
-        <v>0</v>
-      </c>
-      <c r="F10" s="29">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B8">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting pivot="1" sqref="B7">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/blueprint-jira-better-excel/Canada-Issues.xlsx
+++ b/blueprint-jira-better-excel/Canada-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59444C68-D2B7-42EF-81C9-5B81AB359FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C8B46C-5E34-4E99-80A1-A0BC3F595C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="688" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -952,9 +952,6 @@
     <t>Development Progress</t>
   </si>
   <si>
-    <t>Austin</t>
-  </si>
-  <si>
     <t>Quality Score</t>
   </si>
   <si>
@@ -1055,6 +1052,10 @@
   </si>
   <si>
     <t>&lt;mt:execute script="field-helper-tool.groovy"/&gt;&lt;mt:execute script="blueprint-helper.groovy"/&gt;&lt;mt:execute script="blueprint-canada-planning-helper.groovy"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Canada (12.4)</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1280,19 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1289,24 +1302,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,7 +1328,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="44348.721334027781" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="44348.725718981485" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -1543,12 +1538,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Active in Release #" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="12.1" maxValue="12.2" count="4">
-        <s v="${fieldHelper.getFieldValueByName(issue, &quot;Active in Release #&quot;)}"/>
-        <m/>
-        <n v="12.2"/>
-        <n v="12.1"/>
-      </sharedItems>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="12.1" maxValue="12.2"/>
     </cacheField>
     <cacheField name="Quality Score" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1635,7 +1625,7 @@
     <s v="$[IF(OR(B2=&quot;Bug&quot;, B2=&quot;Epic&quot;),&quot;&quot;,IF(D2=V2, 0, N2))]"/>
     <x v="0"/>
     <s v="${bpHelper.isInBacklogHealth(issue)}"/>
-    <x v="0"/>
+    <s v="${fieldHelper.getFieldValueByName(issue, &quot;Active in Release #&quot;)}"/>
     <s v="${fieldHelper.getFieldValueByName(issue, &quot;Quality Score&quot;)}"/>
     <s v="${bpHelper.isStoryDecopmosed(issue)}"/>
     <s v="$[IF(AP2=&quot;Yes&quot;, N2, IF(AP2=&quot;No&quot;,0,&quot;&quot;))]"/>
@@ -1682,7 +1672,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1729,7 +1719,7 @@
     <m/>
     <x v="2"/>
     <s v="Yes"/>
-    <x v="2"/>
+    <n v="12.2"/>
     <s v="POC"/>
     <m/>
     <m/>
@@ -1776,7 +1766,7 @@
     <m/>
     <x v="2"/>
     <s v="Yes"/>
-    <x v="2"/>
+    <n v="12.2"/>
     <s v="PROD"/>
     <s v="Yes"/>
     <m/>
@@ -1823,7 +1813,7 @@
     <m/>
     <x v="2"/>
     <s v="Yes"/>
-    <x v="2"/>
+    <n v="12.2"/>
     <m/>
     <s v="No"/>
     <m/>
@@ -1870,7 +1860,7 @@
     <m/>
     <x v="2"/>
     <s v="Yes"/>
-    <x v="2"/>
+    <n v="12.2"/>
     <m/>
     <m/>
     <m/>
@@ -1917,7 +1907,7 @@
     <m/>
     <x v="2"/>
     <s v="Yes"/>
-    <x v="3"/>
+    <n v="12.1"/>
     <m/>
     <m/>
     <m/>
@@ -1964,7 +1954,7 @@
     <m/>
     <x v="2"/>
     <s v="Yes"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2011,7 +2001,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2058,7 +2048,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2105,7 +2095,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2152,7 +2142,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2199,7 +2189,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2246,7 +2236,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2293,7 +2283,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2340,7 +2330,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2387,7 +2377,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2434,7 +2424,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2481,7 +2471,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2528,7 +2518,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2575,7 +2565,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2622,7 +2612,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2669,7 +2659,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2716,7 +2706,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2763,7 +2753,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2810,7 +2800,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2857,7 +2847,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2904,7 +2894,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2951,7 +2941,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2998,7 +2988,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3045,7 +3035,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3092,7 +3082,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3139,7 +3129,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3186,7 +3176,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3233,7 +3223,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3280,7 +3270,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3327,7 +3317,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3374,7 +3364,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3421,7 +3411,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3468,7 +3458,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3515,7 +3505,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3562,7 +3552,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3609,7 +3599,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3656,7 +3646,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3703,7 +3693,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3750,7 +3740,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3797,7 +3787,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3844,7 +3834,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3891,7 +3881,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3938,7 +3928,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3985,7 +3975,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4032,7 +4022,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4079,7 +4069,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4126,7 +4116,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4173,7 +4163,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4220,7 +4210,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4267,7 +4257,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4314,7 +4304,7 @@
     <m/>
     <x v="2"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4361,7 +4351,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4408,7 +4398,7 @@
     <m/>
     <x v="1"/>
     <m/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4419,7 +4409,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="50">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -4552,15 +4542,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4613,7 +4595,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47FAF9B3-F1B1-4B18-B603-59ADFB7917AB}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47FAF9B3-F1B1-4B18-B603-59ADFB7917AB}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:F9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="50">
     <pivotField showAll="0"/>
@@ -4751,15 +4733,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -4853,7 +4827,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -5301,7 +5275,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5355,7 +5329,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
         <v>63</v>
@@ -5374,24 +5348,24 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>162</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>163</v>
@@ -5399,7 +5373,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="20">
         <v>5</v>
@@ -5415,7 +5389,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="20">
         <v>5</v>
@@ -5463,7 +5437,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5647,25 +5621,25 @@
         <v>137</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -5784,25 +5758,25 @@
         <v>161</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AN2" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS2" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="AO2" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP2" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="AS2" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="AT2" s="5" t="s">
         <v>11</v>
@@ -5814,7 +5788,7 @@
       </c>
       <c r="AN3" s="31"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -5831,8 +5805,8 @@
         <v>140</v>
       </c>
       <c r="W4" s="4"/>
-      <c r="AE4" s="5" t="s">
-        <v>191</v>
+      <c r="AE4" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>140</v>
@@ -5851,13 +5825,13 @@
         <v>12.2</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS4" s="33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="27.6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -5879,8 +5853,8 @@
         <v>140</v>
       </c>
       <c r="W5" s="4"/>
-      <c r="AE5" s="5" t="s">
-        <v>191</v>
+      <c r="AE5" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>140</v>
@@ -5899,16 +5873,16 @@
         <v>12.2</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AP5" s="5" t="s">
         <v>139</v>
       </c>
       <c r="AS5" s="33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -5931,8 +5905,8 @@
         <v>140</v>
       </c>
       <c r="W6" s="4"/>
-      <c r="AE6" s="5" t="s">
-        <v>164</v>
+      <c r="AE6" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="AH6" s="4" t="s">
         <v>140</v>
@@ -5951,13 +5925,13 @@
         <v>12.2</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS6" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -5977,8 +5951,8 @@
         <v>140</v>
       </c>
       <c r="W7" s="4"/>
-      <c r="AE7" s="5" t="s">
-        <v>191</v>
+      <c r="AE7" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="AH7" s="4" t="s">
         <v>140</v>
@@ -5997,7 +5971,7 @@
         <v>12.2</v>
       </c>
       <c r="AS7" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="27.6" x14ac:dyDescent="0.3">
@@ -6034,7 +6008,7 @@
         <v>12.1</v>
       </c>
       <c r="AS8" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.3">
@@ -6067,7 +6041,7 @@
       </c>
       <c r="AN9" s="31"/>
       <c r="AS9" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.3">
@@ -6097,7 +6071,7 @@
       </c>
       <c r="AN10" s="31"/>
       <c r="AS10" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.3">
@@ -6127,7 +6101,7 @@
       </c>
       <c r="AN11" s="31"/>
       <c r="AS11" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.3">
@@ -6157,7 +6131,7 @@
       </c>
       <c r="AN12" s="31"/>
       <c r="AS12" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.3">
@@ -6187,7 +6161,7 @@
       </c>
       <c r="AN13" s="31"/>
       <c r="AS13" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.3">

--- a/blueprint-jira-better-excel/Canada-Issues.xlsx
+++ b/blueprint-jira-better-excel/Canada-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C8B46C-5E34-4E99-80A1-A0BC3F595C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554E1D4A-9FB8-4666-8AD6-88858B3A0D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="688" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="198">
   <si>
     <t>Status</t>
   </si>
@@ -1028,9 +1028,6 @@
   </si>
   <si>
     <t>${bpHelper.getReleaseComponent(issue)}&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
-    <t>Belarus</t>
   </si>
   <si>
     <t>(blank)</t>
@@ -1280,7 +1277,13 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -1328,7 +1331,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="44348.725718981485" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="44348.72748425926" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -1496,11 +1499,10 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Release" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="3">
         <s v="${issue.fixVersions.name}"/>
         <m/>
-        <s v="Belarus"/>
-        <s v="Austin"/>
+        <s v="_x000a_Canada (12.4)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -1804,7 +1806,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <x v="2"/>
@@ -4516,11 +4518,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="3"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -4575,7 +4576,7 @@
     </i>
   </colItems>
   <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
+    <pageField fld="30" item="2" hier="-1"/>
     <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="2">
@@ -4596,7 +4597,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47FAF9B3-F1B1-4B18-B603-59ADFB7917AB}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:F9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="A5:F12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="50">
     <pivotField showAll="0"/>
     <pivotField name="To" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -4710,9 +4711,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="5">
+      <items count="4">
         <item x="0"/>
-        <item x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -4767,7 +4767,7 @@
     <field x="2"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="7">
     <i>
       <x v="3"/>
     </i>
@@ -4776,6 +4776,15 @@
     </i>
     <i r="2">
       <x v="25"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
     </i>
     <i t="grand">
       <x/>
@@ -4804,7 +4813,7 @@
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
     <pageField fld="37" item="1" hier="-1"/>
-    <pageField fld="30" item="3" hier="-1"/>
+    <pageField fld="30" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="5">
     <dataField name="Total Estimate" fld="13" baseField="10" baseItem="1"/>
@@ -4814,7 +4823,7 @@
     <dataField name="Development Progress" fld="49" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -4827,7 +4836,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -5253,13 +5262,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5275,7 +5284,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5311,7 +5320,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF66290E-43B2-4D8C-B12D-4C7A8A7BDD6A}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -5348,7 +5357,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5373,7 +5382,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="20">
         <v>5</v>
@@ -5389,7 +5398,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="20">
         <v>5</v>
@@ -5421,10 +5430,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="B9" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -5435,9 +5444,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="20">
+        <v>10</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="20">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="20">
+        <v>15</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B7">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting pivot="1" sqref="B7 B10">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5639,7 +5696,7 @@
         <v>180</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -5806,7 +5863,7 @@
       </c>
       <c r="W4" s="4"/>
       <c r="AE4" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>140</v>
@@ -5828,7 +5885,7 @@
         <v>166</v>
       </c>
       <c r="AS4" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
@@ -5854,7 +5911,7 @@
       </c>
       <c r="W5" s="4"/>
       <c r="AE5" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>140</v>
@@ -5879,7 +5936,7 @@
         <v>139</v>
       </c>
       <c r="AS5" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
@@ -5906,7 +5963,7 @@
       </c>
       <c r="W6" s="4"/>
       <c r="AE6" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH6" s="4" t="s">
         <v>140</v>
@@ -5928,7 +5985,7 @@
         <v>170</v>
       </c>
       <c r="AS6" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
@@ -5952,7 +6009,7 @@
       </c>
       <c r="W7" s="4"/>
       <c r="AE7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH7" s="4" t="s">
         <v>140</v>
@@ -5971,7 +6028,7 @@
         <v>12.2</v>
       </c>
       <c r="AS7" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="27.6" x14ac:dyDescent="0.3">
@@ -6008,7 +6065,7 @@
         <v>12.1</v>
       </c>
       <c r="AS8" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.3">
